--- a/GradeDistributionsDB/Spring2013/Output/Spring2013 GB.xlsx
+++ b/GradeDistributionsDB/Spring2013/Output/Spring2013 GB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="179">
   <si>
     <t>Course</t>
   </si>
@@ -127,6 +127,18 @@
     <t>3.45%</t>
   </si>
   <si>
+    <t>INTA-612</t>
+  </si>
+  <si>
+    <t>SIEVERT R</t>
+  </si>
+  <si>
+    <t>85.00%</t>
+  </si>
+  <si>
+    <t>15.00%</t>
+  </si>
+  <si>
     <t>INTA-613</t>
   </si>
   <si>
@@ -268,9 +280,6 @@
     <t>INTA-670</t>
   </si>
   <si>
-    <t>SIEVERT R</t>
-  </si>
-  <si>
     <t>88.89%</t>
   </si>
   <si>
@@ -308,6 +317,9 @@
   </si>
   <si>
     <t>28.00%</t>
+  </si>
+  <si>
+    <t>BOYLE D</t>
   </si>
   <si>
     <t>72.73%</t>
@@ -875,7 +887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H139"/>
+  <dimension ref="A1:H145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1095,13 +1107,13 @@
         <v>38</v>
       </c>
       <c r="C16" t="n">
-        <v>3.9165</v>
+        <v>3.85</v>
       </c>
       <c r="D16" t="s">
         <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
@@ -1115,173 +1127,173 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="B19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" t="n">
-        <v>3.433</v>
+        <v>3.9165</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s">
         <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.433</v>
+      </c>
+      <c r="D22" t="s">
         <v>46</v>
       </c>
-      <c r="C22" t="n">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>47</v>
       </c>
-      <c r="E22" t="s">
-        <v>12</v>
-      </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G22" t="s">
         <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="B25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C25" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" t="n">
         <v>3.6665</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D28" t="s">
         <v>19</v>
       </c>
-      <c r="E25" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="B26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" t="n">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
-        <v>53</v>
+      <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="B29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C29" t="n">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" t="n">
         <v>3.56</v>
       </c>
-      <c r="D29" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="B30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" t="n">
-        <v>3.857</v>
-      </c>
-      <c r="D30" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="D32" t="s">
         <v>59</v>
       </c>
-      <c r="F30" t="s">
+      <c r="E32" t="s">
         <v>60</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="s">
-        <v>61</v>
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="B33" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C33" t="n">
-        <v>2.833</v>
+        <v>3.857</v>
       </c>
       <c r="D33" t="s">
         <v>62</v>
@@ -1290,32 +1302,32 @@
         <v>63</v>
       </c>
       <c r="F33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G33" t="s">
         <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="B36" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C36" t="n">
-        <v>2.889</v>
+        <v>2.833</v>
       </c>
       <c r="D36" t="s">
         <v>66</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F36" t="s">
         <v>67</v>
@@ -1324,51 +1336,51 @@
         <v>12</v>
       </c>
       <c r="H36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="B39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2.889</v>
+      </c>
+      <c r="D39" t="s">
         <v>70</v>
       </c>
-      <c r="C39" t="n">
-        <v>4</v>
-      </c>
-      <c r="D39" t="s">
-        <v>47</v>
-      </c>
       <c r="E39" t="s">
         <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="G39" t="s">
         <v>12</v>
       </c>
       <c r="H39" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="B42" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C42" t="n">
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E42" t="s">
         <v>12</v>
@@ -1385,21 +1397,21 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="B45" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C45" t="n">
-        <v>3.308</v>
+        <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="E45" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
         <v>12</v>
@@ -1408,35 +1420,35 @@
         <v>12</v>
       </c>
       <c r="H45" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="B48" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3.308</v>
+      </c>
+      <c r="D48" t="s">
         <v>79</v>
       </c>
-      <c r="C48" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>80</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" t="s">
         <v>81</v>
-      </c>
-      <c r="F48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
-      <c r="H48" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1446,16 +1458,16 @@
     </row>
     <row r="51" spans="1:8">
       <c r="B51" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="C51" t="n">
         <v>3.7</v>
       </c>
       <c r="D51" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E51" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F51" t="s">
         <v>12</v>
@@ -1469,22 +1481,22 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="D54" t="s">
         <v>84</v>
       </c>
-      <c r="C54" t="n">
-        <v>3.889</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>85</v>
       </c>
-      <c r="E54" t="s">
-        <v>67</v>
-      </c>
       <c r="F54" t="s">
         <v>12</v>
       </c>
@@ -1495,64 +1507,23 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
-      <c r="B55" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" t="n">
-        <v>4</v>
-      </c>
-      <c r="D55" t="s">
-        <v>47</v>
-      </c>
-      <c r="E55" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
-      <c r="H55" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="56" spans="1:8">
-      <c r="B56" t="s">
-        <v>41</v>
-      </c>
-      <c r="C56" t="n">
-        <v>4</v>
-      </c>
-      <c r="D56" t="s">
-        <v>47</v>
-      </c>
-      <c r="E56" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" t="s">
-        <v>12</v>
-      </c>
-      <c r="H56" t="s">
-        <v>12</v>
+      <c r="A56" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="B57" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3.889</v>
       </c>
       <c r="D57" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="E57" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="F57" t="s">
         <v>12</v>
@@ -1566,19 +1537,19 @@
     </row>
     <row r="58" spans="1:8">
       <c r="B58" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C58" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E58" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G58" t="s">
         <v>12</v>
@@ -1589,16 +1560,16 @@
     </row>
     <row r="59" spans="1:8">
       <c r="B59" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="C59" t="n">
-        <v>3.857</v>
+        <v>4</v>
       </c>
       <c r="D59" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="E59" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
         <v>12</v>
@@ -1612,53 +1583,94 @@
     </row>
     <row r="60" spans="1:8">
       <c r="B60" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="C60" t="n">
-        <v>3.625</v>
+        <v>4</v>
       </c>
       <c r="D60" t="s">
+        <v>51</v>
+      </c>
+      <c r="E60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="B61" t="s">
+        <v>90</v>
+      </c>
+      <c r="C61" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D61" t="s">
         <v>23</v>
       </c>
-      <c r="E60" t="s">
-        <v>24</v>
-      </c>
-      <c r="F60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" t="s">
+      <c r="E61" t="s">
+        <v>91</v>
+      </c>
+      <c r="F61" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" t="s">
-        <v>93</v>
+      <c r="B62" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" t="n">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>51</v>
+      </c>
+      <c r="E62" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="B63" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C63" t="n">
-        <v>3.389</v>
+        <v>3.857</v>
       </c>
       <c r="D63" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="E63" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="F63" t="s">
         <v>12</v>
       </c>
       <c r="G63" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="H63" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -1666,105 +1678,64 @@
         <v>95</v>
       </c>
       <c r="C64" t="n">
-        <v>3.72</v>
+        <v>3.625</v>
       </c>
       <c r="D64" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" t="s">
+        <v>24</v>
+      </c>
+      <c r="F64" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
         <v>96</v>
-      </c>
-      <c r="E64" t="s">
-        <v>97</v>
-      </c>
-      <c r="F64" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" t="s">
-        <v>12</v>
-      </c>
-      <c r="H64" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="B65" t="s">
-        <v>87</v>
-      </c>
-      <c r="C65" t="n">
-        <v>3.636</v>
-      </c>
-      <c r="D65" t="s">
-        <v>98</v>
-      </c>
-      <c r="E65" t="s">
-        <v>99</v>
-      </c>
-      <c r="F65" t="s">
-        <v>15</v>
-      </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
-      <c r="H65" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="B66" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D66" t="s">
-        <v>100</v>
-      </c>
-      <c r="E66" t="s">
-        <v>101</v>
-      </c>
-      <c r="F66" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" t="s">
-        <v>12</v>
-      </c>
-      <c r="H66" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="B67" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="C67" t="n">
-        <v>3.643</v>
+        <v>3.389</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E67" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="F67" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="G67" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="H67" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="B68" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C68" t="n">
-        <v>3.6755</v>
+        <v>3.72</v>
       </c>
       <c r="D68" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E68" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F68" t="s">
         <v>12</v>
@@ -1778,16 +1749,16 @@
     </row>
     <row r="69" spans="1:8">
       <c r="B69" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D69" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="E69" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="F69" t="s">
         <v>12</v>
@@ -1801,19 +1772,19 @@
     </row>
     <row r="70" spans="1:8">
       <c r="B70" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C70" t="n">
-        <v>3.421</v>
+        <v>3.636</v>
       </c>
       <c r="D70" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E70" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F70" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="G70" t="s">
         <v>12</v>
@@ -1822,54 +1793,136 @@
         <v>12</v>
       </c>
     </row>
+    <row r="71" spans="1:8">
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>104</v>
+      </c>
+      <c r="E71" t="s">
+        <v>105</v>
+      </c>
+      <c r="F71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" t="s">
+        <v>106</v>
+      </c>
+    </row>
     <row r="72" spans="1:8">
-      <c r="A72" t="s">
-        <v>109</v>
+      <c r="B72" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" t="n">
+        <v>3.643</v>
+      </c>
+      <c r="D72" t="s">
+        <v>104</v>
+      </c>
+      <c r="E72" t="s">
+        <v>105</v>
+      </c>
+      <c r="F72" t="s">
+        <v>106</v>
+      </c>
+      <c r="G72" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="B73" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="C73" t="n">
-        <v>3.7175</v>
+        <v>4</v>
       </c>
       <c r="D73" t="s">
+        <v>51</v>
+      </c>
+      <c r="E73" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="B74" t="s">
+        <v>107</v>
+      </c>
+      <c r="C74" t="n">
+        <v>3.6755</v>
+      </c>
+      <c r="D74" t="s">
+        <v>108</v>
+      </c>
+      <c r="E74" t="s">
+        <v>109</v>
+      </c>
+      <c r="F74" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="B75" t="s">
         <v>110</v>
       </c>
-      <c r="E73" t="s">
-        <v>111</v>
-      </c>
-      <c r="F73" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
-      <c r="H73" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" t="s">
-        <v>112</v>
+      <c r="C75" t="n">
+        <v>4</v>
+      </c>
+      <c r="D75" t="s">
+        <v>51</v>
+      </c>
+      <c r="E75" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="B76" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C76" t="n">
-        <v>3.75</v>
+        <v>3.421</v>
       </c>
       <c r="D76" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E76" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="F76" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="G76" t="s">
         <v>12</v>
@@ -1880,24 +1933,24 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="B79" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="C79" t="n">
-        <v>3.79</v>
+        <v>3.7175</v>
       </c>
       <c r="D79" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="E79" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="F79" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="G79" t="s">
         <v>12</v>
@@ -1908,258 +1961,258 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="B82" t="s">
+        <v>117</v>
+      </c>
+      <c r="C82" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="D82" t="s">
         <v>118</v>
       </c>
-      <c r="C82" t="n">
+      <c r="E82" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" t="s">
+        <v>20</v>
+      </c>
+      <c r="G82" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="B85" t="s">
+        <v>120</v>
+      </c>
+      <c r="C85" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="D85" t="s">
+        <v>62</v>
+      </c>
+      <c r="E85" t="s">
+        <v>63</v>
+      </c>
+      <c r="F85" t="s">
+        <v>64</v>
+      </c>
+      <c r="G85" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="B88" t="s">
+        <v>122</v>
+      </c>
+      <c r="C88" t="n">
         <v>3.55</v>
       </c>
-      <c r="D82" t="s">
-        <v>119</v>
-      </c>
-      <c r="E82" t="s">
-        <v>120</v>
-      </c>
-      <c r="F82" t="s">
-        <v>51</v>
-      </c>
-      <c r="G82" t="s">
-        <v>12</v>
-      </c>
-      <c r="H82" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="B83" t="s">
-        <v>121</v>
-      </c>
-      <c r="C83" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="D83" t="s">
-        <v>122</v>
-      </c>
-      <c r="E83" t="s">
+      <c r="D88" t="s">
         <v>123</v>
       </c>
-      <c r="F83" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" t="s">
-        <v>12</v>
-      </c>
-      <c r="H83" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" t="s">
+      <c r="E88" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="B86" t="s">
-        <v>125</v>
-      </c>
-      <c r="C86" t="n">
-        <v>3.423</v>
-      </c>
-      <c r="D86" t="s">
-        <v>126</v>
-      </c>
-      <c r="E86" t="s">
-        <v>127</v>
-      </c>
-      <c r="F86" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" t="s">
-        <v>12</v>
-      </c>
-      <c r="H86" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" t="s">
-        <v>128</v>
+      <c r="F88" t="s">
+        <v>55</v>
+      </c>
+      <c r="G88" t="s">
+        <v>12</v>
+      </c>
+      <c r="H88" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="B89" t="s">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="C89" t="n">
-        <v>3.059</v>
+        <v>3.68</v>
       </c>
       <c r="D89" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E89" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F89" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="G89" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="H89" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="B92" t="s">
+        <v>129</v>
+      </c>
+      <c r="C92" t="n">
+        <v>3.423</v>
+      </c>
+      <c r="D92" t="s">
+        <v>130</v>
+      </c>
+      <c r="E92" t="s">
+        <v>131</v>
+      </c>
+      <c r="F92" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="B95" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" t="n">
+        <v>3.059</v>
+      </c>
+      <c r="D95" t="s">
+        <v>133</v>
+      </c>
+      <c r="E95" t="s">
         <v>134</v>
       </c>
-      <c r="C92" t="n">
+      <c r="F95" t="s">
+        <v>135</v>
+      </c>
+      <c r="G95" t="s">
+        <v>135</v>
+      </c>
+      <c r="H95" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="B98" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" t="n">
         <v>3.833</v>
       </c>
-      <c r="D92" t="s">
-        <v>135</v>
-      </c>
-      <c r="E92" t="s">
-        <v>63</v>
-      </c>
-      <c r="F92" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
-      <c r="H92" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="B93" t="s">
-        <v>136</v>
-      </c>
-      <c r="C93" t="n">
+      <c r="D98" t="s">
+        <v>139</v>
+      </c>
+      <c r="E98" t="s">
+        <v>67</v>
+      </c>
+      <c r="F98" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="B99" t="s">
+        <v>140</v>
+      </c>
+      <c r="C99" t="n">
         <v>3.6</v>
       </c>
-      <c r="D93" t="s">
-        <v>119</v>
-      </c>
-      <c r="E93" t="s">
-        <v>137</v>
-      </c>
-      <c r="F93" t="s">
-        <v>12</v>
-      </c>
-      <c r="G93" t="s">
-        <v>12</v>
-      </c>
-      <c r="H93" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="B96" t="s">
+      <c r="D99" t="s">
+        <v>123</v>
+      </c>
+      <c r="E99" t="s">
+        <v>141</v>
+      </c>
+      <c r="F99" t="s">
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="B102" t="s">
+        <v>143</v>
+      </c>
+      <c r="C102" t="n">
+        <v>3.833</v>
+      </c>
+      <c r="D102" t="s">
         <v>139</v>
       </c>
-      <c r="C96" t="n">
-        <v>3.833</v>
-      </c>
-      <c r="D96" t="s">
-        <v>135</v>
-      </c>
-      <c r="E96" t="s">
-        <v>63</v>
-      </c>
-      <c r="F96" t="s">
-        <v>12</v>
-      </c>
-      <c r="G96" t="s">
-        <v>12</v>
-      </c>
-      <c r="H96" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="B97" t="s">
-        <v>140</v>
-      </c>
-      <c r="C97" t="n">
-        <v>3.571</v>
-      </c>
-      <c r="D97" t="s">
-        <v>141</v>
-      </c>
-      <c r="E97" t="s">
-        <v>142</v>
-      </c>
-      <c r="F97" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97" t="s">
-        <v>12</v>
-      </c>
-      <c r="H97" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="B100" t="s">
-        <v>144</v>
-      </c>
-      <c r="C100" t="n">
-        <v>3.5835</v>
-      </c>
-      <c r="D100" t="s">
-        <v>14</v>
-      </c>
-      <c r="E100" t="s">
-        <v>16</v>
-      </c>
-      <c r="F100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100" t="s">
-        <v>12</v>
-      </c>
-      <c r="H100" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" t="s">
-        <v>145</v>
+      <c r="E102" t="s">
+        <v>67</v>
+      </c>
+      <c r="F102" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>12</v>
+      </c>
+      <c r="H102" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="B103" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="C103" t="n">
-        <v>3.769</v>
+        <v>3.571</v>
       </c>
       <c r="D103" t="s">
+        <v>145</v>
+      </c>
+      <c r="E103" t="s">
         <v>146</v>
-      </c>
-      <c r="E103" t="s">
-        <v>147</v>
       </c>
       <c r="F103" t="s">
         <v>12</v>
@@ -2173,21 +2226,21 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="B106" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C106" t="n">
-        <v>3.467</v>
+        <v>3.5835</v>
       </c>
       <c r="D106" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="E106" t="s">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="F106" t="s">
         <v>12</v>
@@ -2196,26 +2249,26 @@
         <v>12</v>
       </c>
       <c r="H106" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="B109" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="C109" t="n">
-        <v>3.333</v>
+        <v>3.769</v>
       </c>
       <c r="D109" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E109" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
       <c r="F109" t="s">
         <v>12</v>
@@ -2229,21 +2282,21 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="B112" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C112" t="n">
-        <v>3.889</v>
+        <v>3.467</v>
       </c>
       <c r="D112" t="s">
-        <v>85</v>
+        <v>154</v>
       </c>
       <c r="E112" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="F112" t="s">
         <v>12</v>
@@ -2265,120 +2318,120 @@
         <v>157</v>
       </c>
       <c r="C115" t="n">
-        <v>3.559</v>
+        <v>3.333</v>
       </c>
       <c r="D115" t="s">
         <v>158</v>
       </c>
       <c r="E115" t="s">
+        <v>70</v>
+      </c>
+      <c r="F115" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" t="s">
         <v>159</v>
       </c>
-      <c r="F115" t="s">
-        <v>12</v>
-      </c>
-      <c r="G115" t="s">
-        <v>12</v>
-      </c>
-      <c r="H115" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="B116" t="s">
+    </row>
+    <row r="118" spans="1:8">
+      <c r="B118" t="s">
+        <v>148</v>
+      </c>
+      <c r="C118" t="n">
+        <v>3.889</v>
+      </c>
+      <c r="D118" t="s">
+        <v>88</v>
+      </c>
+      <c r="E118" t="s">
+        <v>71</v>
+      </c>
+      <c r="F118" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>12</v>
+      </c>
+      <c r="H118" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" t="s">
         <v>160</v>
       </c>
-      <c r="C116" t="n">
-        <v>3.375</v>
-      </c>
-      <c r="D116" t="s">
+    </row>
+    <row r="121" spans="1:8">
+      <c r="B121" t="s">
         <v>161</v>
       </c>
-      <c r="E116" t="s">
-        <v>12</v>
-      </c>
-      <c r="F116" t="s">
-        <v>21</v>
-      </c>
-      <c r="G116" t="s">
-        <v>12</v>
-      </c>
-      <c r="H116" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" t="s">
+      <c r="C121" t="n">
+        <v>3.559</v>
+      </c>
+      <c r="D121" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="B119" t="s">
-        <v>139</v>
-      </c>
-      <c r="C119" t="n">
-        <v>3.611</v>
-      </c>
-      <c r="D119" t="s">
+      <c r="E121" t="s">
         <v>163</v>
       </c>
-      <c r="E119" t="s">
-        <v>164</v>
-      </c>
-      <c r="F119" t="s">
-        <v>12</v>
-      </c>
-      <c r="G119" t="s">
-        <v>12</v>
-      </c>
-      <c r="H119" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" t="s">
-        <v>165</v>
+      <c r="F121" t="s">
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
+        <v>12</v>
+      </c>
+      <c r="H121" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="B122" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C122" t="n">
-        <v>4</v>
+        <v>3.375</v>
       </c>
       <c r="D122" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
       <c r="E122" t="s">
         <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G122" t="s">
         <v>12</v>
       </c>
       <c r="H122" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="B125" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="C125" t="n">
-        <v>3.833</v>
+        <v>3.611</v>
       </c>
       <c r="D125" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="E125" t="s">
-        <v>63</v>
+        <v>168</v>
       </c>
       <c r="F125" t="s">
         <v>12</v>
@@ -2392,21 +2445,21 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="B128" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C128" t="n">
-        <v>3.778</v>
+        <v>4</v>
       </c>
       <c r="D128" t="s">
-        <v>170</v>
+        <v>51</v>
       </c>
       <c r="E128" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
         <v>12</v>
@@ -2425,16 +2478,16 @@
     </row>
     <row r="131" spans="1:8">
       <c r="B131" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C131" t="n">
-        <v>4</v>
+        <v>3.833</v>
       </c>
       <c r="D131" t="s">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="E131" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F131" t="s">
         <v>12</v>
@@ -2446,146 +2499,202 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
-      <c r="B132" t="s">
-        <v>116</v>
-      </c>
-      <c r="C132" t="n">
-        <v>3.857</v>
-      </c>
-      <c r="D132" t="s">
-        <v>90</v>
-      </c>
-      <c r="E132" t="s">
-        <v>91</v>
-      </c>
-      <c r="F132" t="s">
-        <v>12</v>
-      </c>
-      <c r="G132" t="s">
-        <v>12</v>
-      </c>
-      <c r="H132" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="133" spans="1:8">
-      <c r="B133" t="s">
-        <v>153</v>
-      </c>
-      <c r="C133" t="n">
-        <v>4</v>
-      </c>
-      <c r="D133" t="s">
-        <v>47</v>
-      </c>
-      <c r="E133" t="s">
-        <v>12</v>
-      </c>
-      <c r="F133" t="s">
-        <v>12</v>
-      </c>
-      <c r="G133" t="s">
-        <v>12</v>
-      </c>
-      <c r="H133" t="s">
-        <v>12</v>
+      <c r="A133" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="B134" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C134" t="n">
+        <v>3.778</v>
+      </c>
+      <c r="D134" t="s">
+        <v>174</v>
+      </c>
+      <c r="E134" t="s">
+        <v>72</v>
+      </c>
+      <c r="F134" t="s">
+        <v>12</v>
+      </c>
+      <c r="G134" t="s">
+        <v>12</v>
+      </c>
+      <c r="H134" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="B137" t="s">
+        <v>170</v>
+      </c>
+      <c r="C137" t="n">
         <v>4</v>
       </c>
-      <c r="D134" t="s">
-        <v>47</v>
-      </c>
-      <c r="E134" t="s">
-        <v>12</v>
-      </c>
-      <c r="F134" t="s">
-        <v>12</v>
-      </c>
-      <c r="G134" t="s">
-        <v>12</v>
-      </c>
-      <c r="H134" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="B135" t="s">
-        <v>13</v>
-      </c>
-      <c r="C135" t="n">
-        <v>4</v>
-      </c>
-      <c r="D135" t="s">
-        <v>47</v>
-      </c>
-      <c r="E135" t="s">
-        <v>12</v>
-      </c>
-      <c r="F135" t="s">
-        <v>12</v>
-      </c>
-      <c r="G135" t="s">
-        <v>12</v>
-      </c>
-      <c r="H135" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
-      <c r="B136" t="s">
-        <v>121</v>
-      </c>
-      <c r="C136" t="n">
-        <v>4</v>
-      </c>
-      <c r="D136" t="s">
-        <v>47</v>
-      </c>
-      <c r="E136" t="s">
-        <v>12</v>
-      </c>
-      <c r="F136" t="s">
-        <v>12</v>
-      </c>
-      <c r="G136" t="s">
-        <v>12</v>
-      </c>
-      <c r="H136" t="s">
+      <c r="D137" t="s">
+        <v>51</v>
+      </c>
+      <c r="E137" t="s">
+        <v>12</v>
+      </c>
+      <c r="F137" t="s">
+        <v>12</v>
+      </c>
+      <c r="G137" t="s">
+        <v>12</v>
+      </c>
+      <c r="H137" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" t="s">
-        <v>172</v>
+      <c r="B138" t="s">
+        <v>120</v>
+      </c>
+      <c r="C138" t="n">
+        <v>3.857</v>
+      </c>
+      <c r="D138" t="s">
+        <v>93</v>
+      </c>
+      <c r="E138" t="s">
+        <v>94</v>
+      </c>
+      <c r="F138" t="s">
+        <v>12</v>
+      </c>
+      <c r="G138" t="s">
+        <v>12</v>
+      </c>
+      <c r="H138" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="B139" t="s">
+        <v>157</v>
+      </c>
+      <c r="C139" t="n">
+        <v>4</v>
+      </c>
+      <c r="D139" t="s">
+        <v>51</v>
+      </c>
+      <c r="E139" t="s">
+        <v>12</v>
+      </c>
+      <c r="F139" t="s">
+        <v>12</v>
+      </c>
+      <c r="G139" t="s">
+        <v>12</v>
+      </c>
+      <c r="H139" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="B140" t="s">
+        <v>129</v>
+      </c>
+      <c r="C140" t="n">
+        <v>4</v>
+      </c>
+      <c r="D140" t="s">
+        <v>51</v>
+      </c>
+      <c r="E140" t="s">
+        <v>12</v>
+      </c>
+      <c r="F140" t="s">
+        <v>12</v>
+      </c>
+      <c r="G140" t="s">
+        <v>12</v>
+      </c>
+      <c r="H140" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="B141" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141" t="n">
+        <v>4</v>
+      </c>
+      <c r="D141" t="s">
+        <v>51</v>
+      </c>
+      <c r="E141" t="s">
+        <v>12</v>
+      </c>
+      <c r="F141" t="s">
+        <v>12</v>
+      </c>
+      <c r="G141" t="s">
+        <v>12</v>
+      </c>
+      <c r="H141" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="B142" t="s">
+        <v>125</v>
+      </c>
+      <c r="C142" t="n">
+        <v>4</v>
+      </c>
+      <c r="D142" t="s">
+        <v>51</v>
+      </c>
+      <c r="E142" t="s">
+        <v>12</v>
+      </c>
+      <c r="F142" t="s">
+        <v>12</v>
+      </c>
+      <c r="G142" t="s">
+        <v>12</v>
+      </c>
+      <c r="H142" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="B145" t="s">
         <v>22</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C145" t="n">
         <v>3.9</v>
       </c>
-      <c r="D139" t="s">
-        <v>173</v>
-      </c>
-      <c r="E139" t="s">
-        <v>174</v>
-      </c>
-      <c r="F139" t="s">
-        <v>12</v>
-      </c>
-      <c r="G139" t="s">
-        <v>12</v>
-      </c>
-      <c r="H139" t="s">
+      <c r="D145" t="s">
+        <v>177</v>
+      </c>
+      <c r="E145" t="s">
+        <v>178</v>
+      </c>
+      <c r="F145" t="s">
+        <v>12</v>
+      </c>
+      <c r="G145" t="s">
+        <v>12</v>
+      </c>
+      <c r="H145" t="s">
         <v>12</v>
       </c>
     </row>

--- a/GradeDistributionsDB/Spring2013/Output/Spring2013 GB.xlsx
+++ b/GradeDistributionsDB/Spring2013/Output/Spring2013 GB.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="184">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>BUSH-631</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>0.00%</t>
   </si>
   <si>
+    <t>8.00%</t>
+  </si>
+  <si>
     <t>CAUDLE S</t>
   </si>
   <si>
@@ -82,6 +88,9 @@
     <t>6.25%</t>
   </si>
   <si>
+    <t>5.88%</t>
+  </si>
+  <si>
     <t>CORTES K</t>
   </si>
   <si>
@@ -421,9 +430,6 @@
     <t>17.65%</t>
   </si>
   <si>
-    <t>5.88%</t>
-  </si>
-  <si>
     <t>11.76%</t>
   </si>
   <si>
@@ -448,6 +454,9 @@
     <t>ROBINSON S</t>
   </si>
   <si>
+    <t>4.00%</t>
+  </si>
+  <si>
     <t>ABOUASSI K</t>
   </si>
   <si>
@@ -463,6 +472,9 @@
     <t>LUM J</t>
   </si>
   <si>
+    <t>4.35%</t>
+  </si>
+  <si>
     <t>PSAA-638</t>
   </si>
   <si>
@@ -512,6 +524,9 @@
   </si>
   <si>
     <t>81.25%</t>
+  </si>
+  <si>
+    <t>15.79%</t>
   </si>
   <si>
     <t>PSAA-645</t>
@@ -588,12 +603,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -887,15 +901,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H145"/>
+  <dimension ref="A1:I145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -920,1782 +934,1992 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>3.652</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
         <v>3.818</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
         <v>3.45</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="n">
         <v>3.625</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C9" t="n">
         <v>3.636</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C12" t="n">
         <v>3.1875</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="B13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C13" t="n">
         <v>3.483</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C16" t="n">
         <v>3.85</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="B19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C19" t="n">
         <v>3.9165</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="B22" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C22" t="n">
         <v>3.433</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="I22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="B25" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C25" t="n">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="B28" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C28" t="n">
         <v>3.6665</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E28" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="B29" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C29" t="n">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="B32" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C32" t="n">
         <v>3.56</v>
       </c>
       <c r="D32" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E32" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="B33" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C33" t="n">
         <v>3.857</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="B36" t="s">
         <v>64</v>
-      </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="B36" t="s">
-        <v>61</v>
       </c>
       <c r="C36" t="n">
         <v>2.833</v>
       </c>
       <c r="D36" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E36" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F36" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="B39" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C39" t="n">
         <v>2.889</v>
       </c>
       <c r="D39" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="B42" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C42" t="n">
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="B45" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C45" t="n">
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H45" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="B48" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C48" t="n">
         <v>3.308</v>
       </c>
       <c r="D48" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E48" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H48" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="B51" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C51" t="n">
         <v>3.7</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E51" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H51" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="B54" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C54" t="n">
         <v>3.7</v>
       </c>
       <c r="D54" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E54" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H54" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="B57" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C57" t="n">
         <v>3.889</v>
       </c>
       <c r="D57" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E57" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H57" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="B58" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C58" t="n">
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H58" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="B59" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C59" t="n">
         <v>4</v>
       </c>
       <c r="D59" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H59" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="B60" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C60" t="n">
         <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H60" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="B61" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C61" t="n">
         <v>3.5</v>
       </c>
       <c r="D61" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E61" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H61" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="B62" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C62" t="n">
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H62" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="B63" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C63" t="n">
         <v>3.857</v>
       </c>
       <c r="D63" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E63" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H63" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="B64" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C64" t="n">
         <v>3.625</v>
       </c>
       <c r="D64" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E64" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H64" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="B67" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C67" t="n">
         <v>3.389</v>
       </c>
       <c r="D67" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E67" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G67" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H67" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="B68" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C68" t="n">
         <v>3.72</v>
       </c>
       <c r="D68" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E68" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H68" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="B69" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C69" t="n">
         <v>3.7</v>
       </c>
       <c r="D69" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E69" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H69" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="B70" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C70" t="n">
         <v>3.636</v>
       </c>
       <c r="D70" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E70" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F70" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H70" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="B71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C71" t="n">
         <v>3.5</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E71" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H71" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>109</v>
+      </c>
+      <c r="I71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="B72" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C72" t="n">
         <v>3.643</v>
       </c>
       <c r="D72" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E72" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F72" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H72" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="B73" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C73" t="n">
         <v>4</v>
       </c>
       <c r="D73" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H73" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I73" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="B74" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C74" t="n">
         <v>3.6755</v>
       </c>
       <c r="D74" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E74" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H74" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="B75" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C75" t="n">
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H75" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="B76" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C76" t="n">
         <v>3.421</v>
       </c>
       <c r="D76" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E76" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F76" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H76" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I76" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="B79" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C79" t="n">
         <v>3.7175</v>
       </c>
       <c r="D79" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E79" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H79" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I79" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="B82" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C82" t="n">
         <v>3.75</v>
       </c>
       <c r="D82" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F82" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H82" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I82" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="B85" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C85" t="n">
         <v>3.79</v>
       </c>
       <c r="D85" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E85" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F85" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H85" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="B88" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C88" t="n">
         <v>3.55</v>
       </c>
       <c r="D88" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E88" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F88" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H88" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I88" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="B89" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C89" t="n">
         <v>3.68</v>
       </c>
       <c r="D89" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E89" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H89" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I89" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="B92" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C92" t="n">
         <v>3.423</v>
       </c>
       <c r="D92" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E92" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H92" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="B95" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C95" t="n">
         <v>3.059</v>
       </c>
       <c r="D95" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E95" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F95" t="s">
-        <v>135</v>
+        <v>24</v>
       </c>
       <c r="G95" t="s">
-        <v>135</v>
+        <v>24</v>
       </c>
       <c r="H95" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="B98" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C98" t="n">
         <v>3.833</v>
       </c>
       <c r="D98" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E98" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H98" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="B99" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C99" t="n">
         <v>3.6</v>
       </c>
       <c r="D99" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E99" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H99" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I99" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="B102" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C102" t="n">
         <v>3.833</v>
       </c>
       <c r="D102" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E102" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H102" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I102" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="B103" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C103" t="n">
         <v>3.571</v>
       </c>
       <c r="D103" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E103" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H103" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I103" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="B106" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C106" t="n">
         <v>3.5835</v>
       </c>
       <c r="D106" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E106" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H106" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I106" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="B109" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C109" t="n">
         <v>3.769</v>
       </c>
       <c r="D109" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E109" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H109" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I109" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="B112" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C112" t="n">
         <v>3.467</v>
       </c>
       <c r="D112" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E112" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H112" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I112" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="B115" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C115" t="n">
         <v>3.333</v>
       </c>
       <c r="D115" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E115" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H115" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I115" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="B118" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C118" t="n">
         <v>3.889</v>
       </c>
       <c r="D118" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E118" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H118" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I118" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="B121" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C121" t="n">
         <v>3.559</v>
       </c>
       <c r="D121" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E121" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H121" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I121" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="B122" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C122" t="n">
         <v>3.375</v>
       </c>
       <c r="D122" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F122" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H122" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I122" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="B125" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C125" t="n">
         <v>3.611</v>
       </c>
       <c r="D125" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E125" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F125" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G125" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H125" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I125" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="B128" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C128" t="n">
         <v>4</v>
       </c>
       <c r="D128" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E128" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F128" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G128" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H128" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I128" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="B131" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C131" t="n">
         <v>3.833</v>
       </c>
       <c r="D131" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E131" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H131" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I131" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="B134" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C134" t="n">
         <v>3.778</v>
       </c>
       <c r="D134" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E134" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H134" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I134" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="B137" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
-      <c r="B137" t="s">
-        <v>170</v>
       </c>
       <c r="C137" t="n">
         <v>4</v>
       </c>
       <c r="D137" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E137" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F137" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G137" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H137" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I137" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="B138" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C138" t="n">
         <v>3.857</v>
       </c>
       <c r="D138" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E138" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F138" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G138" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H138" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I138" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="B139" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C139" t="n">
         <v>4</v>
       </c>
       <c r="D139" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E139" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F139" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G139" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H139" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I139" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="B140" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C140" t="n">
         <v>4</v>
       </c>
       <c r="D140" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H140" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I140" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="B141" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C141" t="n">
         <v>4</v>
       </c>
       <c r="D141" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E141" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F141" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G141" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H141" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I141" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="B142" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C142" t="n">
         <v>4</v>
       </c>
       <c r="D142" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E142" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F142" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G142" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H142" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I142" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="B145" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C145" t="n">
         <v>3.9</v>
       </c>
       <c r="D145" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E145" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F145" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G145" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H145" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I145" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/GradeDistributionsDB/Spring2013/Output/Spring2013 GB.xlsx
+++ b/GradeDistributionsDB/Spring2013/Output/Spring2013 GB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="180">
   <si>
     <t>Course</t>
   </si>
@@ -401,6 +401,9 @@
   </si>
   <si>
     <t>PSAA-630</t>
+  </si>
+  <si>
+    <t>TACKETT-GIBSON M</t>
   </si>
   <si>
     <t>BRIGHT L</t>
@@ -887,7 +890,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H145"/>
+  <dimension ref="A1:H146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2076,129 +2079,129 @@
         <v>129</v>
       </c>
       <c r="C92" t="n">
+        <v>4</v>
+      </c>
+      <c r="D92" t="s">
+        <v>51</v>
+      </c>
+      <c r="E92" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="B93" t="s">
+        <v>130</v>
+      </c>
+      <c r="C93" t="n">
         <v>3.423</v>
       </c>
-      <c r="D92" t="s">
-        <v>130</v>
-      </c>
-      <c r="E92" t="s">
+      <c r="D93" t="s">
         <v>131</v>
       </c>
-      <c r="F92" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
-      <c r="H92" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" t="s">
+      <c r="E93" t="s">
         <v>132</v>
       </c>
+      <c r="F93" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="95" spans="1:8">
-      <c r="B95" t="s">
+      <c r="A95" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="B96" t="s">
         <v>13</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C96" t="n">
         <v>3.059</v>
       </c>
-      <c r="D95" t="s">
-        <v>133</v>
-      </c>
-      <c r="E95" t="s">
+      <c r="D96" t="s">
         <v>134</v>
       </c>
-      <c r="F95" t="s">
+      <c r="E96" t="s">
         <v>135</v>
       </c>
-      <c r="G95" t="s">
-        <v>135</v>
-      </c>
-      <c r="H95" t="s">
+      <c r="F96" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" t="s">
+      <c r="G96" t="s">
+        <v>136</v>
+      </c>
+      <c r="H96" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="98" spans="1:8">
-      <c r="B98" t="s">
+      <c r="A98" t="s">
         <v>138</v>
-      </c>
-      <c r="C98" t="n">
-        <v>3.833</v>
-      </c>
-      <c r="D98" t="s">
-        <v>139</v>
-      </c>
-      <c r="E98" t="s">
-        <v>67</v>
-      </c>
-      <c r="F98" t="s">
-        <v>12</v>
-      </c>
-      <c r="G98" t="s">
-        <v>12</v>
-      </c>
-      <c r="H98" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="B99" t="s">
+        <v>139</v>
+      </c>
+      <c r="C99" t="n">
+        <v>3.833</v>
+      </c>
+      <c r="D99" t="s">
         <v>140</v>
       </c>
-      <c r="C99" t="n">
+      <c r="E99" t="s">
+        <v>67</v>
+      </c>
+      <c r="F99" t="s">
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="B100" t="s">
+        <v>141</v>
+      </c>
+      <c r="C100" t="n">
         <v>3.6</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D100" t="s">
         <v>123</v>
       </c>
-      <c r="E99" t="s">
-        <v>141</v>
-      </c>
-      <c r="F99" t="s">
-        <v>12</v>
-      </c>
-      <c r="G99" t="s">
-        <v>12</v>
-      </c>
-      <c r="H99" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" t="s">
+      <c r="E100" t="s">
         <v>142</v>
       </c>
+      <c r="F100" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="102" spans="1:8">
-      <c r="B102" t="s">
+      <c r="A102" t="s">
         <v>143</v>
-      </c>
-      <c r="C102" t="n">
-        <v>3.833</v>
-      </c>
-      <c r="D102" t="s">
-        <v>139</v>
-      </c>
-      <c r="E102" t="s">
-        <v>67</v>
-      </c>
-      <c r="F102" t="s">
-        <v>12</v>
-      </c>
-      <c r="G102" t="s">
-        <v>12</v>
-      </c>
-      <c r="H102" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -2206,367 +2209,367 @@
         <v>144</v>
       </c>
       <c r="C103" t="n">
+        <v>3.833</v>
+      </c>
+      <c r="D103" t="s">
+        <v>140</v>
+      </c>
+      <c r="E103" t="s">
+        <v>67</v>
+      </c>
+      <c r="F103" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>12</v>
+      </c>
+      <c r="H103" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="B104" t="s">
+        <v>145</v>
+      </c>
+      <c r="C104" t="n">
         <v>3.571</v>
       </c>
-      <c r="D103" t="s">
-        <v>145</v>
-      </c>
-      <c r="E103" t="s">
+      <c r="D104" t="s">
         <v>146</v>
       </c>
-      <c r="F103" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" t="s">
-        <v>12</v>
-      </c>
-      <c r="H103" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" t="s">
+      <c r="E104" t="s">
         <v>147</v>
       </c>
+      <c r="F104" t="s">
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="106" spans="1:8">
-      <c r="B106" t="s">
+      <c r="A106" t="s">
         <v>148</v>
       </c>
-      <c r="C106" t="n">
+    </row>
+    <row r="107" spans="1:8">
+      <c r="B107" t="s">
+        <v>149</v>
+      </c>
+      <c r="C107" t="n">
         <v>3.5835</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D107" t="s">
         <v>14</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E107" t="s">
         <v>16</v>
       </c>
-      <c r="F106" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" t="s">
-        <v>12</v>
-      </c>
-      <c r="H106" t="s">
+      <c r="F107" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>12</v>
+      </c>
+      <c r="H107" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
-      <c r="A108" t="s">
+    <row r="109" spans="1:8">
+      <c r="A109" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="B110" t="s">
+        <v>122</v>
+      </c>
+      <c r="C110" t="n">
+        <v>3.769</v>
+      </c>
+      <c r="D110" t="s">
+        <v>151</v>
+      </c>
+      <c r="E110" t="s">
+        <v>152</v>
+      </c>
+      <c r="F110" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H110" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="B113" t="s">
+        <v>154</v>
+      </c>
+      <c r="C113" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="D113" t="s">
+        <v>155</v>
+      </c>
+      <c r="E113" t="s">
+        <v>156</v>
+      </c>
+      <c r="F113" t="s">
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="B116" t="s">
+        <v>158</v>
+      </c>
+      <c r="C116" t="n">
+        <v>3.333</v>
+      </c>
+      <c r="D116" t="s">
+        <v>159</v>
+      </c>
+      <c r="E116" t="s">
+        <v>70</v>
+      </c>
+      <c r="F116" t="s">
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>12</v>
+      </c>
+      <c r="H116" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="B119" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="B109" t="s">
-        <v>122</v>
-      </c>
-      <c r="C109" t="n">
-        <v>3.769</v>
-      </c>
-      <c r="D109" t="s">
-        <v>150</v>
-      </c>
-      <c r="E109" t="s">
-        <v>151</v>
-      </c>
-      <c r="F109" t="s">
-        <v>12</v>
-      </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
-      <c r="H109" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="B112" t="s">
-        <v>153</v>
-      </c>
-      <c r="C112" t="n">
-        <v>3.467</v>
-      </c>
-      <c r="D112" t="s">
-        <v>154</v>
-      </c>
-      <c r="E112" t="s">
-        <v>155</v>
-      </c>
-      <c r="F112" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H112" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="A114" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="B115" t="s">
-        <v>157</v>
-      </c>
-      <c r="C115" t="n">
-        <v>3.333</v>
-      </c>
-      <c r="D115" t="s">
-        <v>158</v>
-      </c>
-      <c r="E115" t="s">
-        <v>70</v>
-      </c>
-      <c r="F115" t="s">
-        <v>12</v>
-      </c>
-      <c r="G115" t="s">
-        <v>12</v>
-      </c>
-      <c r="H115" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="A117" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="B118" t="s">
-        <v>148</v>
-      </c>
-      <c r="C118" t="n">
+      <c r="C119" t="n">
         <v>3.889</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D119" t="s">
         <v>88</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E119" t="s">
         <v>71</v>
       </c>
-      <c r="F118" t="s">
-        <v>12</v>
-      </c>
-      <c r="G118" t="s">
-        <v>12</v>
-      </c>
-      <c r="H118" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" t="s">
-        <v>160</v>
+      <c r="F119" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>12</v>
+      </c>
+      <c r="H119" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:8">
-      <c r="B121" t="s">
+      <c r="A121" t="s">
         <v>161</v>
-      </c>
-      <c r="C121" t="n">
-        <v>3.559</v>
-      </c>
-      <c r="D121" t="s">
-        <v>162</v>
-      </c>
-      <c r="E121" t="s">
-        <v>163</v>
-      </c>
-      <c r="F121" t="s">
-        <v>12</v>
-      </c>
-      <c r="G121" t="s">
-        <v>12</v>
-      </c>
-      <c r="H121" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="B122" t="s">
+        <v>162</v>
+      </c>
+      <c r="C122" t="n">
+        <v>3.559</v>
+      </c>
+      <c r="D122" t="s">
+        <v>163</v>
+      </c>
+      <c r="E122" t="s">
         <v>164</v>
       </c>
-      <c r="C122" t="n">
+      <c r="F122" t="s">
+        <v>12</v>
+      </c>
+      <c r="G122" t="s">
+        <v>12</v>
+      </c>
+      <c r="H122" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="B123" t="s">
+        <v>165</v>
+      </c>
+      <c r="C123" t="n">
         <v>3.375</v>
       </c>
-      <c r="D122" t="s">
-        <v>165</v>
-      </c>
-      <c r="E122" t="s">
-        <v>12</v>
-      </c>
-      <c r="F122" t="s">
+      <c r="D123" t="s">
+        <v>166</v>
+      </c>
+      <c r="E123" t="s">
+        <v>12</v>
+      </c>
+      <c r="F123" t="s">
         <v>21</v>
       </c>
-      <c r="G122" t="s">
-        <v>12</v>
-      </c>
-      <c r="H122" t="s">
+      <c r="G123" t="s">
+        <v>12</v>
+      </c>
+      <c r="H123" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
-      <c r="A124" t="s">
-        <v>166</v>
-      </c>
-    </row>
     <row r="125" spans="1:8">
-      <c r="B125" t="s">
-        <v>143</v>
-      </c>
-      <c r="C125" t="n">
+      <c r="A125" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="B126" t="s">
+        <v>144</v>
+      </c>
+      <c r="C126" t="n">
         <v>3.611</v>
       </c>
-      <c r="D125" t="s">
-        <v>167</v>
-      </c>
-      <c r="E125" t="s">
+      <c r="D126" t="s">
         <v>168</v>
       </c>
-      <c r="F125" t="s">
-        <v>12</v>
-      </c>
-      <c r="G125" t="s">
-        <v>12</v>
-      </c>
-      <c r="H125" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127" t="s">
+      <c r="E126" t="s">
         <v>169</v>
       </c>
+      <c r="F126" t="s">
+        <v>12</v>
+      </c>
+      <c r="G126" t="s">
+        <v>12</v>
+      </c>
+      <c r="H126" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="128" spans="1:8">
-      <c r="B128" t="s">
+      <c r="A128" t="s">
         <v>170</v>
       </c>
-      <c r="C128" t="n">
+    </row>
+    <row r="129" spans="1:8">
+      <c r="B129" t="s">
+        <v>171</v>
+      </c>
+      <c r="C129" t="n">
         <v>4</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D129" t="s">
         <v>51</v>
       </c>
-      <c r="E128" t="s">
-        <v>12</v>
-      </c>
-      <c r="F128" t="s">
-        <v>12</v>
-      </c>
-      <c r="G128" t="s">
-        <v>12</v>
-      </c>
-      <c r="H128" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="A130" t="s">
-        <v>171</v>
+      <c r="E129" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" t="s">
+        <v>12</v>
+      </c>
+      <c r="G129" t="s">
+        <v>12</v>
+      </c>
+      <c r="H129" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:8">
-      <c r="B131" t="s">
-        <v>161</v>
-      </c>
-      <c r="C131" t="n">
+      <c r="A131" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="B132" t="s">
+        <v>162</v>
+      </c>
+      <c r="C132" t="n">
         <v>3.833</v>
       </c>
-      <c r="D131" t="s">
-        <v>139</v>
-      </c>
-      <c r="E131" t="s">
+      <c r="D132" t="s">
+        <v>140</v>
+      </c>
+      <c r="E132" t="s">
         <v>67</v>
       </c>
-      <c r="F131" t="s">
-        <v>12</v>
-      </c>
-      <c r="G131" t="s">
-        <v>12</v>
-      </c>
-      <c r="H131" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133" t="s">
-        <v>172</v>
+      <c r="F132" t="s">
+        <v>12</v>
+      </c>
+      <c r="G132" t="s">
+        <v>12</v>
+      </c>
+      <c r="H132" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:8">
-      <c r="B134" t="s">
+      <c r="A134" t="s">
         <v>173</v>
       </c>
-      <c r="C134" t="n">
+    </row>
+    <row r="135" spans="1:8">
+      <c r="B135" t="s">
+        <v>174</v>
+      </c>
+      <c r="C135" t="n">
         <v>3.778</v>
       </c>
-      <c r="D134" t="s">
-        <v>174</v>
-      </c>
-      <c r="E134" t="s">
+      <c r="D135" t="s">
+        <v>175</v>
+      </c>
+      <c r="E135" t="s">
         <v>72</v>
       </c>
-      <c r="F134" t="s">
-        <v>12</v>
-      </c>
-      <c r="G134" t="s">
-        <v>12</v>
-      </c>
-      <c r="H134" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
-      <c r="A136" t="s">
-        <v>175</v>
+      <c r="F135" t="s">
+        <v>12</v>
+      </c>
+      <c r="G135" t="s">
+        <v>12</v>
+      </c>
+      <c r="H135" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:8">
-      <c r="B137" t="s">
-        <v>170</v>
-      </c>
-      <c r="C137" t="n">
-        <v>4</v>
-      </c>
-      <c r="D137" t="s">
-        <v>51</v>
-      </c>
-      <c r="E137" t="s">
-        <v>12</v>
-      </c>
-      <c r="F137" t="s">
-        <v>12</v>
-      </c>
-      <c r="G137" t="s">
-        <v>12</v>
-      </c>
-      <c r="H137" t="s">
-        <v>12</v>
+      <c r="A137" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="B138" t="s">
-        <v>120</v>
+        <v>171</v>
       </c>
       <c r="C138" t="n">
-        <v>3.857</v>
+        <v>4</v>
       </c>
       <c r="D138" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="E138" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
         <v>12</v>
@@ -2580,16 +2583,16 @@
     </row>
     <row r="139" spans="1:8">
       <c r="B139" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="C139" t="n">
-        <v>4</v>
+        <v>3.857</v>
       </c>
       <c r="D139" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="E139" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="F139" t="s">
         <v>12</v>
@@ -2603,7 +2606,7 @@
     </row>
     <row r="140" spans="1:8">
       <c r="B140" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="C140" t="n">
         <v>4</v>
@@ -2626,7 +2629,7 @@
     </row>
     <row r="141" spans="1:8">
       <c r="B141" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="C141" t="n">
         <v>4</v>
@@ -2649,7 +2652,7 @@
     </row>
     <row r="142" spans="1:8">
       <c r="B142" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="C142" t="n">
         <v>4</v>
@@ -2670,31 +2673,54 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
-      <c r="A144" t="s">
-        <v>176</v>
+    <row r="143" spans="1:8">
+      <c r="B143" t="s">
+        <v>125</v>
+      </c>
+      <c r="C143" t="n">
+        <v>4</v>
+      </c>
+      <c r="D143" t="s">
+        <v>51</v>
+      </c>
+      <c r="E143" t="s">
+        <v>12</v>
+      </c>
+      <c r="F143" t="s">
+        <v>12</v>
+      </c>
+      <c r="G143" t="s">
+        <v>12</v>
+      </c>
+      <c r="H143" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="145" spans="1:8">
-      <c r="B145" t="s">
+      <c r="A145" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="B146" t="s">
         <v>22</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C146" t="n">
         <v>3.9</v>
       </c>
-      <c r="D145" t="s">
-        <v>177</v>
-      </c>
-      <c r="E145" t="s">
+      <c r="D146" t="s">
         <v>178</v>
       </c>
-      <c r="F145" t="s">
-        <v>12</v>
-      </c>
-      <c r="G145" t="s">
-        <v>12</v>
-      </c>
-      <c r="H145" t="s">
+      <c r="E146" t="s">
+        <v>179</v>
+      </c>
+      <c r="F146" t="s">
+        <v>12</v>
+      </c>
+      <c r="G146" t="s">
+        <v>12</v>
+      </c>
+      <c r="H146" t="s">
         <v>12</v>
       </c>
     </row>
